--- a/qtools2/test/forms/parent_form.xlsx
+++ b/qtools2/test/forms/parent_form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="0" windowWidth="25360" windowHeight="13940" tabRatio="500"/>
@@ -103,16 +103,16 @@
     <t>save_form</t>
   </si>
   <si>
-    <t>child/a/age</t>
-  </si>
-  <si>
-    <t>child/a/name</t>
-  </si>
-  <si>
     <t>child_form_id</t>
   </si>
   <si>
-    <t>child/extra_info</t>
+    <t>/child/a/name</t>
+  </si>
+  <si>
+    <t>/child/a/age</t>
+  </si>
+  <si>
+    <t>/child/extra_info</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
